--- a/tests/testthat/test_data/example1_normalised_without_anomaly_detection.xlsx
+++ b/tests/testthat/test_data/example1_normalised_without_anomaly_detection.xlsx
@@ -1,65 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\Dropbox (Cambridge University)\NormaliseForIC50\tests\testthat\test_data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF967218-D9A3-4545-872A-AF3CBF505166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4590" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="example1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>sample.one</t>
-  </si>
-  <si>
-    <t>sample.one.1</t>
-  </si>
-  <si>
-    <t>sample.two</t>
-  </si>
-  <si>
-    <t>NA.</t>
-  </si>
-  <si>
-    <t>sample.three</t>
-  </si>
-  <si>
-    <t>sample.three.1</t>
-  </si>
-  <si>
-    <t>X9</t>
-  </si>
-  <si>
-    <t>X10</t>
-  </si>
-  <si>
-    <t>X11</t>
-  </si>
-  <si>
-    <t>X12</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -85,22 +52,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -150,6 +112,10 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -175,12 +141,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -206,7 +175,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -382,50 +350,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>sample one</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>sample one.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>sample two</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>sample three</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>sample three.1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
-        <v>39.140999999999998</v>
+        <v>39.141</v>
       </c>
       <c r="B2">
         <v>23.468</v>
@@ -434,62 +420,62 @@
         <v>42.85</v>
       </c>
       <c r="D2">
-        <v>37.704000000000001</v>
+        <v>37.704</v>
       </c>
       <c r="E2">
         <v>100.001</v>
       </c>
       <c r="F2">
-        <v>99.998000000000005</v>
+        <v>99.998</v>
       </c>
       <c r="G2">
-        <v>55.515000000000001</v>
+        <v>55.515</v>
       </c>
       <c r="H2">
         <v>52.04</v>
       </c>
       <c r="I2">
-        <v>81.477999999999994</v>
+        <v>81.47799999999999</v>
       </c>
       <c r="J2">
-        <v>67.725999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>67.726</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3">
-        <v>3.3839999999999999</v>
+        <v>3.384</v>
       </c>
       <c r="B3">
         <v>2.448</v>
       </c>
       <c r="C3">
-        <v>7.8280000000000003</v>
+        <v>7.828</v>
       </c>
       <c r="D3">
-        <v>18.021000000000001</v>
+        <v>18.021</v>
       </c>
       <c r="E3">
-        <v>99.995000000000005</v>
+        <v>99.995</v>
       </c>
       <c r="F3">
         <v>99.991</v>
       </c>
       <c r="G3">
-        <v>11.135999999999999</v>
+        <v>11.136</v>
       </c>
       <c r="H3">
-        <v>9.8330000000000002</v>
+        <v>9.833</v>
       </c>
       <c r="I3">
-        <v>13.308999999999999</v>
+        <v>13.309</v>
       </c>
       <c r="J3">
         <v>0.443</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4">
-        <v>3.6509999999999998</v>
+        <v>3.651</v>
       </c>
       <c r="B4">
         <v>2.448</v>
@@ -498,33 +484,33 @@
         <v>6.859</v>
       </c>
       <c r="D4">
-        <v>7.2270000000000003</v>
+        <v>7.227</v>
       </c>
       <c r="E4">
-        <v>99.900999999999996</v>
+        <v>99.901</v>
       </c>
       <c r="F4">
-        <v>99.751000000000005</v>
+        <v>99.751</v>
       </c>
       <c r="G4">
-        <v>2.7149999999999999</v>
+        <v>2.715</v>
       </c>
       <c r="H4">
-        <v>1.8129999999999999</v>
+        <v>1.813</v>
       </c>
       <c r="I4">
-        <v>8.0619999999999994</v>
+        <v>8.061999999999999</v>
       </c>
       <c r="J4">
-        <v>-9.5489999999999995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>-9.548999999999999</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5">
         <v>-3.4</v>
       </c>
       <c r="B5">
-        <v>-0.59299999999999997</v>
+        <v>-0.593</v>
       </c>
       <c r="C5">
         <v>-1.83</v>
@@ -533,27 +519,27 @@
         <v>-4.67</v>
       </c>
       <c r="E5">
-        <v>91.977999999999994</v>
+        <v>91.97799999999999</v>
       </c>
       <c r="F5">
         <v>90.875</v>
       </c>
       <c r="G5">
-        <v>-5.2050000000000001</v>
+        <v>-5.205</v>
       </c>
       <c r="H5">
-        <v>3.3170000000000002</v>
+        <v>3.317</v>
       </c>
       <c r="I5">
-        <v>-4.9710000000000001</v>
+        <v>-4.971</v>
       </c>
       <c r="J5">
-        <v>-32.774999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>-32.775</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6">
-        <v>2.1139999999999999</v>
+        <v>2.114</v>
       </c>
       <c r="B6">
         <v>4.319</v>
@@ -562,30 +548,30 @@
         <v>-3.367</v>
       </c>
       <c r="D6">
-        <v>2.2810000000000001</v>
+        <v>2.281</v>
       </c>
       <c r="E6">
-        <v>66.933999999999997</v>
+        <v>66.934</v>
       </c>
       <c r="F6">
-        <v>59.993000000000002</v>
+        <v>59.993</v>
       </c>
       <c r="G6">
-        <v>-0.45900000000000002</v>
+        <v>-0.459</v>
       </c>
       <c r="H6">
-        <v>-7.6779999999999999</v>
+        <v>-7.678</v>
       </c>
       <c r="I6">
         <v>1.98</v>
       </c>
       <c r="J6">
-        <v>-20.376999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>-20.377</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7">
-        <v>11.135999999999999</v>
+        <v>11.136</v>
       </c>
       <c r="B7">
         <v>3.25</v>
@@ -597,62 +583,62 @@
         <v>-3.3</v>
       </c>
       <c r="E7">
-        <v>41.313000000000002</v>
+        <v>41.313</v>
       </c>
       <c r="F7">
         <v>32.19</v>
       </c>
       <c r="G7">
-        <v>-1.0940000000000001</v>
+        <v>-1.094</v>
       </c>
       <c r="H7">
-        <v>1.6120000000000001</v>
+        <v>1.612</v>
       </c>
       <c r="I7">
-        <v>2.1139999999999999</v>
+        <v>2.114</v>
       </c>
       <c r="J7">
-        <v>-26.626000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>-26.626</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8">
-        <v>1.4119999999999999</v>
+        <v>1.412</v>
       </c>
       <c r="B8">
-        <v>4.2859999999999996</v>
+        <v>4.286</v>
       </c>
       <c r="C8">
-        <v>-3.9350000000000001</v>
+        <v>-3.935</v>
       </c>
       <c r="D8">
-        <v>5.3890000000000002</v>
+        <v>5.389</v>
       </c>
       <c r="E8">
-        <v>18.454999999999998</v>
+        <v>18.455</v>
       </c>
       <c r="F8">
         <v>19.959</v>
       </c>
       <c r="G8">
-        <v>4.0519999999999996</v>
+        <v>4.052</v>
       </c>
       <c r="H8">
-        <v>-2.7320000000000002</v>
+        <v>-2.732</v>
       </c>
       <c r="I8">
-        <v>1.4450000000000001</v>
+        <v>1.445</v>
       </c>
       <c r="J8">
         <v>-24.42</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9">
-        <v>-17.234999999999999</v>
+        <v>-17.235</v>
       </c>
       <c r="B9">
-        <v>-15.263999999999999</v>
+        <v>-15.264</v>
       </c>
       <c r="C9">
         <v>-29.099</v>
@@ -661,16 +647,16 @@
         <v>-21.88</v>
       </c>
       <c r="E9">
-        <v>-14.795999999999999</v>
+        <v>-14.796</v>
       </c>
       <c r="F9">
         <v>-17.503</v>
       </c>
       <c r="G9">
-        <v>-20.376999999999999</v>
+        <v>-20.377</v>
       </c>
       <c r="H9">
-        <v>-10.986000000000001</v>
+        <v>-10.986</v>
       </c>
       <c r="I9">
         <v>-17.035</v>
@@ -681,6 +667,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>